--- a/test/sesame_street_blog.xlsx
+++ b/test/sesame_street_blog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Created At</t>
+  </si>
+  <si>
+    <t>Tricky tricky</t>
+  </si>
+  <si>
+    <t>Formula Dates</t>
   </si>
 </sst>
 </file>
@@ -66,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -110,19 +116,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,10 +498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -548,6 +558,24 @@
       </c>
       <c r="E3" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <f xml:space="preserve"> D3 + 1</f>
+        <v>37259.583333333336</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/sesame_street_blog.xlsx
+++ b/test/sesame_street_blog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Authors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Formula Dates</t>
+  </si>
+  <si>
+    <t>Empty Eagress</t>
+  </si>
+  <si>
+    <t>The title, date, and comment have types, but no values</t>
   </si>
 </sst>
 </file>
@@ -116,23 +122,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,7 +510,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -578,6 +590,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/test/sesame_street_blog.xlsx
+++ b/test/sesame_street_blog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Authors" sheetId="1" r:id="rId1"/>
     <sheet name="Posts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>The title, date, and comment have types, but no values</t>
+  </si>
+  <si>
+    <t>Small Bird</t>
+  </si>
+  <si>
+    <t>Cleaner</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -496,6 +502,14 @@
       </c>
       <c r="B2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -602,7 +616,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test/sesame_street_blog.xlsx
+++ b/test/sesame_street_blog.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woody/Src/in_play/lib/simple_xlsx_reader/test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Authors" sheetId="1" r:id="rId1"/>
     <sheet name="Posts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +79,12 @@
   </si>
   <si>
     <t>The title, date, and comment have types, but no values</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>This uses the hyperlink GUI option</t>
   </si>
 </sst>
 </file>
@@ -122,7 +136,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -130,25 +144,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -480,9 +502,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -500,28 +522,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -537,8 +554,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -554,8 +574,12 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="5" t="str">
+        <f>HYPERLINK("http://www.example.com/hyperlink-function", "This uses the HYPERLINK() function")</f>
+        <v>This uses the HYPERLINK() function</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -571,8 +595,11 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -590,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -601,12 +628,10 @@
       <c r="E5" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>